--- a/Performance Evaluation.xlsx
+++ b/Performance Evaluation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fall 2023\COEN 691\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF8DA0D-6993-4CCE-9677-7584DBC39F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B8792-94CA-4D4A-9BD6-E226A77E9A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11846124-8DC9-4DC7-869C-C0AD760F25C8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="62">
   <si>
     <t>HDFS</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Improvement compared to previous number of shots</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -511,6 +514,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,28 +535,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -559,10 +561,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -865,7 +863,7 @@
   <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,66 +933,66 @@
       <c r="S1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="W1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="X1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="AA1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AB1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="AC1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AD1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AE1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="35" t="s">
+      <c r="AF1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="35" t="s">
+      <c r="AG1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="35" t="s">
+      <c r="AH1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="35" t="s">
+      <c r="AI1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="35" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="35" t="s">
+      <c r="AK1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -1052,93 +1050,93 @@
         <f>AVERAGE(C2:R2)</f>
         <v>0.96874918749999994</v>
       </c>
-      <c r="T2" s="36" t="str">
+      <c r="T2" s="28" t="str">
         <f>ADDRESS(MATCH(MAX(S2,S6,S10,S14,S18,S22,S26,S30,S34,S38,S42,S46,S50,S54,S58),S:S,0),1)</f>
         <v>$A$42</v>
       </c>
-      <c r="U2" s="36" t="str">
+      <c r="U2" s="28" t="str">
         <f>ADDRESS(MATCH(MAX(C2,C6,C10,C14,C18,C22,C26,C30,C34,C38,C42,C46,C50,C54,C58),C:C,0),3)</f>
         <v>$C$30</v>
       </c>
-      <c r="V2" s="36" t="str">
+      <c r="V2" s="28" t="str">
         <f>ADDRESS(MATCH(MAX(D2,D6,D10,D14,D18,D22,D26,D30,D34,D38,D42,D46,D50,D54,D58),D:D,0),3)</f>
         <v>$C$42</v>
       </c>
-      <c r="W2" s="36" t="str">
+      <c r="W2" s="28" t="str">
         <f t="shared" ref="W2:AN4" si="0">ADDRESS(MATCH(MAX(E2,E6,E10,E14,E18,E22,E26,E30,E34,E38,E42,E46,E50,E54,E58),E:E,0),3)</f>
         <v>$C$22</v>
       </c>
-      <c r="X2" s="36" t="str">
+      <c r="X2" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$42</v>
       </c>
-      <c r="Y2" s="36" t="str">
+      <c r="Y2" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$42</v>
       </c>
-      <c r="Z2" s="36" t="str">
+      <c r="Z2" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$42</v>
       </c>
-      <c r="AA2" s="36" t="str">
+      <c r="AA2" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$26</v>
       </c>
-      <c r="AB2" s="36" t="str">
+      <c r="AB2" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$38</v>
       </c>
-      <c r="AC2" s="36" t="str">
+      <c r="AC2" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$42</v>
       </c>
-      <c r="AD2" s="36" t="str">
+      <c r="AD2" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$42</v>
       </c>
-      <c r="AE2" s="36" t="str">
+      <c r="AE2" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$34</v>
       </c>
-      <c r="AF2" s="36" t="str">
+      <c r="AF2" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$2</v>
       </c>
-      <c r="AG2" s="36" t="str">
+      <c r="AG2" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$42</v>
       </c>
-      <c r="AH2" s="36" t="str">
+      <c r="AH2" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$42</v>
       </c>
-      <c r="AI2" s="36" t="str">
+      <c r="AI2" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$42</v>
       </c>
-      <c r="AJ2" s="36" t="str">
+      <c r="AJ2" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$42</v>
       </c>
-      <c r="AK2" s="36" t="str">
+      <c r="AK2" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$42</v>
       </c>
-      <c r="AL2" s="36" t="e">
+      <c r="AL2" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="AM2" s="36" t="e">
+      <c r="AM2" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="AN2" s="36" t="e">
+      <c r="AN2" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
@@ -1194,87 +1192,87 @@
         <f t="shared" ref="S3:S61" si="1">AVERAGE(C3:R3)</f>
         <v>0.79675000000000007</v>
       </c>
-      <c r="T3" s="36" t="str">
+      <c r="T3" s="28" t="str">
         <f>ADDRESS(MATCH(MAX(S3,S7,S11,S15,S19,S23,S27,S31,S35,S39,S43,S47,S51,S55,S59),S:S,0),1)</f>
         <v>$A$43</v>
       </c>
-      <c r="U3" s="36" t="str">
+      <c r="U3" s="28" t="str">
         <f t="shared" ref="U3:U4" si="2">ADDRESS(MATCH(MAX(C3,C7,C11,C15,C19,C23,C27,C31,C35,C39,C43,C47,C51,C55,C59),C:C,0),3)</f>
         <v>$C$30</v>
       </c>
-      <c r="V3" s="36" t="str">
+      <c r="V3" s="28" t="str">
         <f t="shared" ref="V3:V4" si="3">ADDRESS(MATCH(MAX(D3,D7,D11,D15,D19,D23,D27,D31,D35,D39,D43,D47,D51,D55,D59),D:D,0),3)</f>
         <v>$C$43</v>
       </c>
-      <c r="W3" s="36" t="str">
+      <c r="W3" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$23</v>
       </c>
-      <c r="X3" s="36" t="str">
+      <c r="X3" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$43</v>
       </c>
-      <c r="Y3" s="36" t="str">
+      <c r="Y3" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$43</v>
       </c>
-      <c r="Z3" s="36" t="str">
+      <c r="Z3" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$43</v>
       </c>
-      <c r="AA3" s="36" t="str">
+      <c r="AA3" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$39</v>
       </c>
-      <c r="AB3" s="36" t="str">
+      <c r="AB3" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$39</v>
       </c>
-      <c r="AC3" s="36" t="str">
+      <c r="AC3" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$43</v>
       </c>
-      <c r="AD3" s="36" t="str">
+      <c r="AD3" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$43</v>
       </c>
-      <c r="AE3" s="36" t="str">
+      <c r="AE3" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$35</v>
       </c>
-      <c r="AF3" s="36" t="str">
+      <c r="AF3" s="28" t="str">
         <f t="shared" ref="AF3" si="4">ADDRESS(MATCH(MAX(N3,N7,N11,N15,N19,N23,N27,N31,N35,N39,N43,N47,N51,N55,N59),N:N,0),3)</f>
         <v>$C$2</v>
       </c>
-      <c r="AG3" s="36" t="str">
+      <c r="AG3" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$42</v>
       </c>
-      <c r="AH3" s="36" t="str">
+      <c r="AH3" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$43</v>
       </c>
-      <c r="AI3" s="36" t="str">
+      <c r="AI3" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$42</v>
       </c>
-      <c r="AJ3" s="36" t="str">
+      <c r="AJ3" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$43</v>
       </c>
-      <c r="AK3" s="36" t="str">
+      <c r="AK3" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$43</v>
       </c>
-      <c r="AL3" s="36" t="e">
+      <c r="AL3" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
@@ -1330,87 +1328,87 @@
         <f t="shared" si="1"/>
         <v>0.34571875000000007</v>
       </c>
-      <c r="T4" s="36" t="str">
+      <c r="T4" s="28" t="str">
         <f>ADDRESS(MATCH(MAX(S4,S8,S12,S16,S20,S24,S28,S32,S36,S40,S44,S48,S52,S56,S60),S:S,0),1)</f>
         <v>$A$60</v>
       </c>
-      <c r="U4" s="36" t="str">
+      <c r="U4" s="28" t="str">
         <f t="shared" si="2"/>
         <v>$C$60</v>
       </c>
-      <c r="V4" s="36" t="str">
+      <c r="V4" s="28" t="str">
         <f t="shared" si="3"/>
         <v>$C$44</v>
       </c>
-      <c r="W4" s="36" t="str">
+      <c r="W4" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$60</v>
       </c>
-      <c r="X4" s="36" t="str">
+      <c r="X4" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$40</v>
       </c>
-      <c r="Y4" s="36" t="str">
+      <c r="Y4" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$60</v>
       </c>
-      <c r="Z4" s="36" t="str">
+      <c r="Z4" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$4</v>
       </c>
-      <c r="AA4" s="36" t="str">
+      <c r="AA4" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$60</v>
       </c>
-      <c r="AB4" s="36" t="str">
+      <c r="AB4" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$40</v>
       </c>
-      <c r="AC4" s="36" t="str">
+      <c r="AC4" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$60</v>
       </c>
-      <c r="AD4" s="36" t="str">
+      <c r="AD4" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$60</v>
       </c>
-      <c r="AE4" s="36" t="str">
+      <c r="AE4" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$60</v>
       </c>
-      <c r="AF4" s="36" t="str">
+      <c r="AF4" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$2</v>
       </c>
-      <c r="AG4" s="36" t="str">
+      <c r="AG4" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$44</v>
       </c>
-      <c r="AH4" s="36" t="str">
+      <c r="AH4" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$40</v>
       </c>
-      <c r="AI4" s="36" t="str">
+      <c r="AI4" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$60</v>
       </c>
-      <c r="AJ4" s="36" t="str">
+      <c r="AJ4" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$44</v>
       </c>
-      <c r="AK4" s="36" t="str">
+      <c r="AK4" s="28" t="str">
         <f t="shared" si="0"/>
         <v>$C$60</v>
       </c>
-      <c r="AL4" s="36" t="e">
+      <c r="AL4" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
@@ -1466,87 +1464,87 @@
         <f t="shared" si="1"/>
         <v>9.8243125000000013</v>
       </c>
-      <c r="T5" s="36" t="str">
+      <c r="T5" s="28" t="str">
         <f>ADDRESS(MATCH(MIN(S5,S9,S13,S17,S21,S25,S29,S33,S37,S41,S45,S49,S53,S57,S61),S:S,0),1)</f>
         <v>$A$45</v>
       </c>
-      <c r="U5" s="36" t="str">
+      <c r="U5" s="28" t="str">
         <f>ADDRESS(MATCH(MIN(C5,C9,C13,C17,C21,C25,C29,C33,C37,C41,C45,C49,C53,C57,C61),C:C,0),3)</f>
         <v>$C$61</v>
       </c>
-      <c r="V5" s="36" t="str">
+      <c r="V5" s="28" t="str">
         <f t="shared" ref="V5:AL5" si="5">ADDRESS(MATCH(MIN(D5,D9,D13,D17,D21,D25,D29,D33,D37,D41,D45,D49,D53,D57,D61),D:D,0),3)</f>
         <v>$C$45</v>
       </c>
-      <c r="W5" s="36" t="str">
+      <c r="W5" s="28" t="str">
         <f t="shared" si="5"/>
         <v>$C$61</v>
       </c>
-      <c r="X5" s="36" t="str">
+      <c r="X5" s="28" t="str">
         <f t="shared" si="5"/>
         <v>$C$41</v>
       </c>
-      <c r="Y5" s="36" t="str">
+      <c r="Y5" s="28" t="str">
         <f t="shared" si="5"/>
         <v>$C$45</v>
       </c>
-      <c r="Z5" s="36" t="str">
+      <c r="Z5" s="28" t="str">
         <f t="shared" si="5"/>
         <v>$C$5</v>
       </c>
-      <c r="AA5" s="36" t="str">
+      <c r="AA5" s="28" t="str">
         <f t="shared" si="5"/>
         <v>$C$45</v>
       </c>
-      <c r="AB5" s="36" t="str">
+      <c r="AB5" s="28" t="str">
         <f t="shared" si="5"/>
         <v>$C$49</v>
       </c>
-      <c r="AC5" s="36" t="str">
+      <c r="AC5" s="28" t="str">
         <f t="shared" si="5"/>
         <v>$C$45</v>
       </c>
-      <c r="AD5" s="36" t="str">
+      <c r="AD5" s="28" t="str">
         <f t="shared" si="5"/>
         <v>$C$41</v>
       </c>
-      <c r="AE5" s="36" t="str">
+      <c r="AE5" s="28" t="str">
         <f t="shared" si="5"/>
         <v>$C$61</v>
       </c>
-      <c r="AF5" s="36" t="str">
+      <c r="AF5" s="28" t="str">
         <f t="shared" si="5"/>
         <v>$C$8</v>
       </c>
-      <c r="AG5" s="36" t="str">
+      <c r="AG5" s="28" t="str">
         <f t="shared" si="5"/>
         <v>$C$29</v>
       </c>
-      <c r="AH5" s="36" t="str">
+      <c r="AH5" s="28" t="str">
         <f t="shared" si="5"/>
         <v>$C$5</v>
       </c>
-      <c r="AI5" s="36" t="str">
+      <c r="AI5" s="28" t="str">
         <f t="shared" si="5"/>
         <v>$C$45</v>
       </c>
-      <c r="AJ5" s="36" t="str">
+      <c r="AJ5" s="28" t="str">
         <f t="shared" si="5"/>
         <v>$C$45</v>
       </c>
-      <c r="AK5" s="36" t="str">
+      <c r="AK5" s="28" t="str">
         <f t="shared" si="5"/>
         <v>$C$45</v>
       </c>
-      <c r="AL5" s="36" t="e">
+      <c r="AL5" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="28"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1606,7 +1604,7 @@
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="12" t="s">
         <v>35</v>
       </c>
@@ -1664,7 +1662,7 @@
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
@@ -1722,7 +1720,7 @@
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
@@ -1780,7 +1778,7 @@
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1840,7 +1838,7 @@
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="12" t="s">
         <v>35</v>
       </c>
@@ -1898,7 +1896,7 @@
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
@@ -1956,7 +1954,7 @@
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="12" t="s">
         <v>19</v>
       </c>
@@ -2014,7 +2012,7 @@
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -2074,7 +2072,7 @@
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
@@ -2132,7 +2130,7 @@
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -2190,7 +2188,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
@@ -2248,7 +2246,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -2308,7 +2306,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
@@ -2366,7 +2364,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="12" t="s">
         <v>18</v>
       </c>
@@ -2424,7 +2422,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="12" t="s">
         <v>19</v>
       </c>
@@ -2482,7 +2480,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -2542,7 +2540,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="12" t="s">
         <v>35</v>
       </c>
@@ -2600,7 +2598,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="12" t="s">
         <v>18</v>
       </c>
@@ -2658,7 +2656,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="12" t="s">
         <v>19</v>
       </c>
@@ -2716,7 +2714,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -2776,7 +2774,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="12" t="s">
         <v>35</v>
       </c>
@@ -2834,7 +2832,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="12" t="s">
         <v>18</v>
       </c>
@@ -2892,7 +2890,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="12" t="s">
         <v>19</v>
       </c>
@@ -2950,7 +2948,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -3010,7 +3008,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="12" t="s">
         <v>35</v>
       </c>
@@ -3068,7 +3066,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="12" t="s">
         <v>18</v>
       </c>
@@ -3126,7 +3124,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="12" t="s">
         <v>19</v>
       </c>
@@ -3184,7 +3182,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -3244,7 +3242,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="12" t="s">
         <v>35</v>
       </c>
@@ -3302,65 +3300,64 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="16">
-        <v>0</v>
-      </c>
-      <c r="D36" s="16">
-        <v>0</v>
-      </c>
-      <c r="E36" s="16">
-        <v>0</v>
-      </c>
-      <c r="F36" s="16">
-        <v>0</v>
-      </c>
-      <c r="G36" s="16">
-        <v>0</v>
-      </c>
-      <c r="H36" s="16">
-        <v>0</v>
-      </c>
-      <c r="I36" s="16">
-        <v>0</v>
-      </c>
-      <c r="J36" s="16">
-        <v>0</v>
-      </c>
-      <c r="K36" s="16">
-        <v>0</v>
-      </c>
-      <c r="L36" s="16">
-        <v>0</v>
-      </c>
-      <c r="M36" s="16">
-        <v>0</v>
-      </c>
-      <c r="N36" s="16">
-        <v>0</v>
-      </c>
-      <c r="O36" s="16">
-        <v>0</v>
-      </c>
-      <c r="P36" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="17">
-        <v>0</v>
-      </c>
-      <c r="R36" s="16">
-        <v>0</v>
-      </c>
-      <c r="S36" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="12" t="s">
         <v>19</v>
       </c>
@@ -3418,7 +3415,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -3478,7 +3475,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="12" t="s">
         <v>35</v>
       </c>
@@ -3536,7 +3533,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="12" t="s">
         <v>18</v>
       </c>
@@ -3594,7 +3591,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="12" t="s">
         <v>19</v>
       </c>
@@ -3652,7 +3649,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -3712,7 +3709,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="12" t="s">
         <v>35</v>
       </c>
@@ -3770,7 +3767,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="12" t="s">
         <v>18</v>
       </c>
@@ -3828,7 +3825,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="12" t="s">
         <v>19</v>
       </c>
@@ -3886,7 +3883,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -3946,7 +3943,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="12" t="s">
         <v>35</v>
       </c>
@@ -4004,7 +4001,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="12" t="s">
         <v>18</v>
       </c>
@@ -4062,7 +4059,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="12" t="s">
         <v>19</v>
       </c>
@@ -4120,7 +4117,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="30" t="s">
         <v>32</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -4180,7 +4177,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
+      <c r="A51" s="30"/>
       <c r="B51" s="12" t="s">
         <v>35</v>
       </c>
@@ -4238,7 +4235,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
+      <c r="A52" s="30"/>
       <c r="B52" s="12" t="s">
         <v>18</v>
       </c>
@@ -4296,7 +4293,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
+      <c r="A53" s="30"/>
       <c r="B53" s="12" t="s">
         <v>19</v>
       </c>
@@ -4354,7 +4351,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B54" s="12" t="s">
@@ -4414,7 +4411,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="12" t="s">
         <v>35</v>
       </c>
@@ -4472,7 +4469,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="12" t="s">
         <v>18</v>
       </c>
@@ -4530,7 +4527,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="12" t="s">
         <v>19</v>
       </c>
@@ -4588,7 +4585,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B58" s="12" t="s">
@@ -4648,7 +4645,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="12" t="s">
         <v>35</v>
       </c>
@@ -4706,7 +4703,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="12" t="s">
         <v>18</v>
       </c>
@@ -4764,7 +4761,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="12" t="s">
         <v>19</v>
       </c>
@@ -4823,6 +4820,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="A58:A61"/>
@@ -4832,12 +4835,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4863,30 +4860,30 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="23" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="23" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="23" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -5788,22 +5785,22 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="23">
         <f>AVERAGE(B3:B18)</f>
         <v>0.92192500000000011</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="23">
         <f t="shared" ref="C19:Q19" si="0">AVERAGE(C3:C18)</f>
         <v>0.6233749999999999</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="23">
         <f t="shared" si="0"/>
         <v>0.6656875000000001</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="23">
         <f t="shared" si="0"/>
         <v>5.8165312499999997</v>
       </c>
@@ -5839,76 +5836,76 @@
         <f t="shared" si="0"/>
         <v>2.8863750000000001</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="22">
         <f t="shared" si="0"/>
         <v>0.96369375000000013</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="22">
         <f t="shared" si="0"/>
         <v>0.84059375000000003</v>
       </c>
-      <c r="P19" s="25">
+      <c r="P19" s="22">
         <f t="shared" si="0"/>
         <v>0.85075000000000001</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="Q19" s="22">
         <f t="shared" si="0"/>
         <v>3.0234999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30">
-        <f t="shared" ref="F20:M20" si="1">(F19-B19)/B19</f>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="24">
+        <f t="shared" ref="F20:L20" si="1">(F19-B19)/B19</f>
         <v>-1.4582259945223403E-2</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="25">
         <f t="shared" si="1"/>
         <v>0.14422498496089811</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="25">
         <f t="shared" si="1"/>
         <v>3.6522392263636981E-2</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="25">
         <f>(E19-I19)/I19</f>
         <v>0.12548298735616187</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="25">
         <f t="shared" si="1"/>
         <v>4.9037886032320399E-2</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="25">
         <f t="shared" si="1"/>
         <v>6.7250821467689126E-2</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="25">
         <f t="shared" si="1"/>
         <v>0.17155797101449277</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="25">
         <f>(I19-M19)/M19</f>
         <v>0.79049196656706078</v>
       </c>
-      <c r="N20" s="31">
+      <c r="N20" s="25">
         <f>(N19-J19)/J19</f>
         <v>1.1187985703511958E-2</v>
       </c>
-      <c r="O20" s="32">
-        <f t="shared" ref="O20:Q20" si="2">(O19-K19)/K19</f>
+      <c r="O20" s="26">
+        <f t="shared" ref="O20:P20" si="2">(O19-K19)/K19</f>
         <v>0.1042282430213467</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="26">
         <f t="shared" si="2"/>
         <v>5.2419978351631424E-2</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="27">
         <f>(M19-Q19)/Q19</f>
         <v>-4.5353067636844623E-2</v>
       </c>
@@ -5943,24 +5940,24 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="23" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="23" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -6041,19 +6038,19 @@
       <c r="M3" s="5">
         <v>1.1970000000000001</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N3" s="28">
         <f>MAX(B3,F3,J3)</f>
         <v>0.99890000000000001</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="28">
         <f>MAX(C3,G3,K3)</f>
         <v>0.96</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="28">
         <f>MAX(D3,H3,L3)</f>
         <v>0.9385</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="28">
         <f>MIN(E3,I3,M3)</f>
         <v>6.1499999999999999E-2</v>
       </c>
@@ -6098,19 +6095,19 @@
       <c r="M4" s="4">
         <v>7.4435000000000002</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="28">
         <f t="shared" ref="N4:P19" si="0">MAX(B4,F4,J4)</f>
         <v>0.9879</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="28">
         <f t="shared" si="0"/>
         <v>0.80100000000000005</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="28">
         <f t="shared" si="0"/>
         <v>0.77449999999999997</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="28">
         <f t="shared" ref="Q4:Q19" si="1">MIN(E4,I4,M4)</f>
         <v>7.4435000000000002</v>
       </c>
@@ -6155,19 +6152,19 @@
       <c r="M5" s="5">
         <v>0.69299999999999995</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="28">
         <f t="shared" si="0"/>
         <v>0.99470000000000003</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="28">
         <f t="shared" si="0"/>
         <v>0.92449999999999999</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="28">
         <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="28">
         <f t="shared" si="1"/>
         <v>0.42149999999999999</v>
       </c>
@@ -6212,19 +6209,19 @@
       <c r="M6" s="4">
         <v>4.4085000000000001</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="28">
         <f t="shared" si="0"/>
         <v>0.99160000000000004</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="28">
         <f t="shared" si="0"/>
         <v>0.79649999999999999</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="28">
         <f t="shared" si="0"/>
         <v>0.27300000000000002</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="28">
         <f t="shared" si="1"/>
         <v>4.4085000000000001</v>
       </c>
@@ -6269,19 +6266,19 @@
       <c r="M7" s="4">
         <v>3.3285</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="28">
         <f t="shared" si="0"/>
         <v>0.99819999999999998</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="28">
         <f t="shared" si="0"/>
         <v>0.94699999999999995</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="28">
         <f t="shared" si="0"/>
         <v>0.86299999999999999</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="28">
         <f t="shared" si="1"/>
         <v>3.3285</v>
       </c>
@@ -6326,19 +6323,19 @@
       <c r="M8" s="4">
         <v>0.8155</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="28">
         <f t="shared" si="0"/>
         <v>0.99429999999999996</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="28">
         <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="28">
         <f t="shared" si="0"/>
         <v>0.90800000000000003</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="28">
         <f t="shared" si="1"/>
         <v>0.8155</v>
       </c>
@@ -6383,19 +6380,19 @@
       <c r="M9" s="4">
         <v>3.395</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="28">
         <f t="shared" si="0"/>
         <v>0.9879</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="28">
         <f t="shared" si="0"/>
         <v>0.5675</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="28">
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="28">
         <f t="shared" si="1"/>
         <v>3.395</v>
       </c>
@@ -6440,19 +6437,19 @@
       <c r="M10" s="4">
         <v>8.6014999999999997</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="28">
         <f t="shared" si="0"/>
         <v>0.99919999999999998</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="28">
         <f t="shared" si="0"/>
         <v>0.6855</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="28">
         <f t="shared" si="0"/>
         <v>0.52449999999999997</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="28">
         <f t="shared" si="1"/>
         <v>8.6014999999999997</v>
       </c>
@@ -6497,19 +6494,19 @@
       <c r="M11" s="5">
         <v>3.4474999999999998</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="28">
         <f t="shared" si="0"/>
         <v>0.99950000000000006</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="28">
         <f t="shared" si="0"/>
         <v>0.91</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="28">
         <f t="shared" si="0"/>
         <v>0.65700000000000003</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="28">
         <f t="shared" si="1"/>
         <v>3.3275000000000001</v>
       </c>
@@ -6554,19 +6551,19 @@
       <c r="M12" s="4">
         <v>7.3490000000000002</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="28">
         <f t="shared" si="0"/>
         <v>0.99280000000000002</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="28">
         <f t="shared" si="0"/>
         <v>0.92149999999999999</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="28">
         <f t="shared" si="0"/>
         <v>0.65200000000000002</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="28">
         <f t="shared" si="1"/>
         <v>7.3490000000000002</v>
       </c>
@@ -6611,19 +6608,19 @@
       <c r="M13" s="4">
         <v>6.4130000000000003</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="28">
         <f t="shared" si="0"/>
         <v>0.99339999999999995</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="28">
         <f t="shared" si="0"/>
         <v>0.89749999999999996</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="28">
         <f t="shared" si="0"/>
         <v>0.63700000000000001</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="28">
         <f t="shared" si="1"/>
         <v>6.4130000000000003</v>
       </c>
@@ -6668,19 +6665,19 @@
       <c r="M14" s="4">
         <v>0</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6725,19 +6722,19 @@
       <c r="M15" s="5">
         <v>27.729500000000002</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="28">
         <f t="shared" si="0"/>
         <v>0.39829999999999999</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="28">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="28">
         <f t="shared" si="0"/>
         <v>1.6E-2</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="28">
         <f t="shared" si="1"/>
         <v>18.423500000000001</v>
       </c>
@@ -6782,19 +6779,19 @@
       <c r="M16" s="4">
         <v>4.8075000000000001</v>
       </c>
-      <c r="N16" s="34">
+      <c r="N16" s="28">
         <f t="shared" si="0"/>
         <v>0.98850000000000005</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="28">
         <f t="shared" si="0"/>
         <v>0.65900000000000003</v>
       </c>
-      <c r="P16" s="34">
+      <c r="P16" s="28">
         <f t="shared" si="0"/>
         <v>0.45100000000000001</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="28">
         <f t="shared" si="1"/>
         <v>4.8075000000000001</v>
       </c>
@@ -6839,19 +6836,19 @@
       <c r="M17" s="4">
         <v>6.8079999999999998</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="28">
         <f t="shared" si="0"/>
         <v>0.77159999999999995</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="28">
         <f t="shared" si="0"/>
         <v>0.52349999999999997</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="28">
         <f t="shared" si="0"/>
         <v>0.44450000000000001</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="28">
         <f t="shared" si="1"/>
         <v>6.8079999999999998</v>
       </c>
@@ -6896,19 +6893,19 @@
       <c r="M18" s="8">
         <v>17.919</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N18" s="28">
         <f t="shared" si="0"/>
         <v>0.86980000000000002</v>
       </c>
-      <c r="O18" s="34">
+      <c r="O18" s="28">
         <f t="shared" si="0"/>
         <v>0.61850000000000005</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18" s="28">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="28">
         <f t="shared" si="1"/>
         <v>17.919</v>
       </c>
@@ -6965,19 +6962,19 @@
         <f t="shared" si="2"/>
         <v>6.5222500000000005</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19" s="28">
         <f t="shared" si="0"/>
         <v>0.91371249999999993</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="28">
         <f t="shared" si="0"/>
         <v>0.72056249999999999</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="28">
         <f t="shared" si="0"/>
         <v>0.61115625000000007</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="28">
         <f t="shared" si="1"/>
         <v>6.5222500000000005</v>
       </c>
@@ -6993,6 +6990,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="845a9349-a1c9-4199-95cd-8d37d6924562" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004DE6E600E0501149B6923CF57F1EBF9A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b17efd8ac89c75ae642103cf5980e598">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="845a9349-a1c9-4199-95cd-8d37d6924562" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f9f6566c0ab0e710b082b147181c431" ns3:_="">
     <xsd:import namespace="845a9349-a1c9-4199-95cd-8d37d6924562"/>
@@ -7150,24 +7164,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16943E03-A3F1-45B8-9A00-B8E37BA80C24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="845a9349-a1c9-4199-95cd-8d37d6924562"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="845a9349-a1c9-4199-95cd-8d37d6924562" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05527D0D-6F61-489D-981F-77851B11CF92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9B2380-3B79-4537-9953-CBC0AED78F12}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7183,28 +7204,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05527D0D-6F61-489D-981F-77851B11CF92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16943E03-A3F1-45B8-9A00-B8E37BA80C24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="845a9349-a1c9-4199-95cd-8d37d6924562"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Performance Evaluation.xlsx
+++ b/Performance Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fall 2023\COEN 691\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B8792-94CA-4D4A-9BD6-E226A77E9A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C829D9D-0898-4065-834E-35EF85829E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11846124-8DC9-4DC7-869C-C0AD760F25C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{11846124-8DC9-4DC7-869C-C0AD760F25C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Parser" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="63">
   <si>
     <t>HDFS</t>
   </si>
@@ -225,6 +225,9 @@
   <si>
     <t>NA</t>
   </si>
+  <si>
+    <t>F1_measure, GA, MLA =&gt; The higher the better; ED =&gt; The lower the better</t>
+  </si>
 </sst>
 </file>
 
@@ -326,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -451,13 +454,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -542,6 +563,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -860,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAC0C6C-96C6-44B4-BC55-2A2A6E6F7258}">
-  <dimension ref="A1:AN61"/>
+  <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4818,8 +4854,32 @@
         <v>8.392093749999999</v>
       </c>
     </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A62:S62"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
@@ -4842,10 +4902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8582E68F-7111-439E-BB0F-FDE59F37F1F4}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5910,8 +5970,30 @@
         <v>-4.5353067636844623E-2</v>
       </c>
     </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A21:Q21"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
@@ -5924,10 +6006,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706040D-2312-4342-B831-D481BA191011}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6979,11 +7061,29 @@
         <v>6.5222500000000005</v>
       </c>
     </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
+    <mergeCell ref="A20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Performance Evaluation.xlsx
+++ b/Performance Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fall 2023\COEN 691\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C829D9D-0898-4065-834E-35EF85829E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69F1768-0BC5-4B81-8DD3-C4DE1AC646DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{11846124-8DC9-4DC7-869C-C0AD760F25C8}"/>
   </bookViews>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAC0C6C-96C6-44B4-BC55-2A2A6E6F7258}">
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:S62"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4905,7 +4905,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:Q21"/>
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5908,7 +5908,7 @@
         <f t="shared" si="0"/>
         <v>0.85075000000000001</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="23">
         <f t="shared" si="0"/>
         <v>3.0234999999999999</v>
       </c>
